--- a/data/pca/factorExposure/factorExposure_2011-09-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +729,63 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.0209726585158636</v>
+        <v>0.01688077359335229</v>
       </c>
       <c r="C2">
-        <v>0.00593672520982516</v>
+        <v>0.007761989681553905</v>
       </c>
       <c r="D2">
-        <v>-0.04981705231701355</v>
+        <v>-0.03957916139921868</v>
       </c>
       <c r="E2">
-        <v>-0.06446540040159614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.01166361234341841</v>
+      </c>
+      <c r="F2">
+        <v>-0.03891175737462962</v>
+      </c>
+      <c r="G2">
+        <v>0.0134458782211374</v>
+      </c>
+      <c r="H2">
+        <v>0.007504161702014626</v>
+      </c>
+      <c r="I2">
+        <v>0.006013742133418759</v>
+      </c>
+      <c r="J2">
+        <v>-0.05472470248319168</v>
+      </c>
+      <c r="K2">
+        <v>-0.07499869756964503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +799,63 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.0843743881749035</v>
+        <v>0.09663339402463508</v>
       </c>
       <c r="C4">
-        <v>0.04154030684771202</v>
+        <v>0.04882970647578707</v>
       </c>
       <c r="D4">
-        <v>-0.05629158793487131</v>
+        <v>-0.04088068356340229</v>
       </c>
       <c r="E4">
-        <v>-0.01619396775731336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0267295053044878</v>
+      </c>
+      <c r="F4">
+        <v>-0.0679029914702472</v>
+      </c>
+      <c r="G4">
+        <v>-0.02577258332541726</v>
+      </c>
+      <c r="H4">
+        <v>-0.007975523876989582</v>
+      </c>
+      <c r="I4">
+        <v>0.0601702154706019</v>
+      </c>
+      <c r="J4">
+        <v>0.04451816879750539</v>
+      </c>
+      <c r="K4">
+        <v>0.04217024757352944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +869,413 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1173914761798184</v>
+        <v>0.1301507243985871</v>
       </c>
       <c r="C6">
-        <v>-0.00577735626591949</v>
+        <v>0.004259880691525911</v>
       </c>
       <c r="D6">
-        <v>-0.0369964311138393</v>
+        <v>-0.05594320723257644</v>
       </c>
       <c r="E6">
-        <v>-0.070006783867893</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01731664037939807</v>
+      </c>
+      <c r="F6">
+        <v>-0.03446881330689462</v>
+      </c>
+      <c r="G6">
+        <v>-0.05257729898596367</v>
+      </c>
+      <c r="H6">
+        <v>-0.2053141144243351</v>
+      </c>
+      <c r="I6">
+        <v>-0.1292152137660139</v>
+      </c>
+      <c r="J6">
+        <v>0.4194129960518267</v>
+      </c>
+      <c r="K6">
+        <v>0.08297973915627031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.07204733117186676</v>
+        <v>0.07012504838723817</v>
       </c>
       <c r="C7">
-        <v>0.01003035422491811</v>
+        <v>0.0475702850668303</v>
       </c>
       <c r="D7">
-        <v>-0.07068035523810891</v>
+        <v>-0.05963321336269532</v>
       </c>
       <c r="E7">
-        <v>-0.05628357495604521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.001616315365882654</v>
+      </c>
+      <c r="F7">
+        <v>-0.0530866039026501</v>
+      </c>
+      <c r="G7">
+        <v>0.0103937448503279</v>
+      </c>
+      <c r="H7">
+        <v>0.01073408102597825</v>
+      </c>
+      <c r="I7">
+        <v>0.05594757287135875</v>
+      </c>
+      <c r="J7">
+        <v>-0.05817378155963651</v>
+      </c>
+      <c r="K7">
+        <v>0.05340333496941004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04279403796900422</v>
+        <v>0.04285748186449362</v>
       </c>
       <c r="C8">
-        <v>0.05600787350319431</v>
+        <v>0.02658376104056526</v>
       </c>
       <c r="D8">
-        <v>0.0008875710892672058</v>
+        <v>0.00781053275051863</v>
       </c>
       <c r="E8">
-        <v>-0.05701849056044816</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01596648765745934</v>
+      </c>
+      <c r="F8">
+        <v>-0.07196937549466537</v>
+      </c>
+      <c r="G8">
+        <v>-0.05240779878943541</v>
+      </c>
+      <c r="H8">
+        <v>-0.03754794100651027</v>
+      </c>
+      <c r="I8">
+        <v>0.09619761325090913</v>
+      </c>
+      <c r="J8">
+        <v>0.03273181740848332</v>
+      </c>
+      <c r="K8">
+        <v>0.02798082002450187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.08039166582299445</v>
+        <v>0.08779268111492734</v>
       </c>
       <c r="C9">
-        <v>0.04974809596285786</v>
+        <v>0.04862834255439891</v>
       </c>
       <c r="D9">
-        <v>-0.05192439526597085</v>
+        <v>-0.03843204806940304</v>
       </c>
       <c r="E9">
-        <v>-0.01800789682353348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.0185969394355843</v>
+      </c>
+      <c r="F9">
+        <v>-0.05492998970761425</v>
+      </c>
+      <c r="G9">
+        <v>-0.04272766114587635</v>
+      </c>
+      <c r="H9">
+        <v>-0.002861484996071021</v>
+      </c>
+      <c r="I9">
+        <v>0.07166389878186678</v>
+      </c>
+      <c r="J9">
+        <v>0.04695155410423942</v>
+      </c>
+      <c r="K9">
+        <v>0.02595132476733328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.01952212964021986</v>
+        <v>0.06498791259124209</v>
       </c>
       <c r="C10">
-        <v>-0.1580110132978923</v>
+        <v>-0.1965959385111207</v>
       </c>
       <c r="D10">
-        <v>0.02535956686106407</v>
+        <v>-0.009888006474404496</v>
       </c>
       <c r="E10">
-        <v>-0.08804181923643964</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02649969000926891</v>
+      </c>
+      <c r="F10">
+        <v>-0.05593291224282122</v>
+      </c>
+      <c r="G10">
+        <v>0.0280973128006659</v>
+      </c>
+      <c r="H10">
+        <v>-0.01290955866786119</v>
+      </c>
+      <c r="I10">
+        <v>-0.04325486870253697</v>
+      </c>
+      <c r="J10">
+        <v>-0.02607262215321687</v>
+      </c>
+      <c r="K10">
+        <v>-0.0280281681325005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07528651824441962</v>
+        <v>0.07595055862818505</v>
       </c>
       <c r="C11">
-        <v>0.04987666216924071</v>
+        <v>0.05558991845095008</v>
       </c>
       <c r="D11">
-        <v>-0.04202992117108047</v>
+        <v>-0.0335733232802529</v>
       </c>
       <c r="E11">
-        <v>-0.03540466075228162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.005299712882543329</v>
+      </c>
+      <c r="F11">
+        <v>-0.02727771018173785</v>
+      </c>
+      <c r="G11">
+        <v>-0.06692906101356641</v>
+      </c>
+      <c r="H11">
+        <v>0.01762790351009611</v>
+      </c>
+      <c r="I11">
+        <v>0.08510392504893693</v>
+      </c>
+      <c r="J11">
+        <v>-0.0224437358872736</v>
+      </c>
+      <c r="K11">
+        <v>-0.04269082195117522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07266620119087351</v>
+        <v>0.07364399256503434</v>
       </c>
       <c r="C12">
-        <v>0.03633811419226914</v>
+        <v>0.04445104213217058</v>
       </c>
       <c r="D12">
-        <v>-0.05043152941624797</v>
+        <v>-0.03283905952991058</v>
       </c>
       <c r="E12">
-        <v>-0.02902093736034191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01150604937659618</v>
+      </c>
+      <c r="F12">
+        <v>-0.0302012271780001</v>
+      </c>
+      <c r="G12">
+        <v>-0.04072618703249454</v>
+      </c>
+      <c r="H12">
+        <v>-0.01040337583984014</v>
+      </c>
+      <c r="I12">
+        <v>0.1007286472540693</v>
+      </c>
+      <c r="J12">
+        <v>-0.02259485313218627</v>
+      </c>
+      <c r="K12">
+        <v>-0.01912820281594337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.08043841077956335</v>
+        <v>0.07090409302053456</v>
       </c>
       <c r="C13">
-        <v>0.03122599654420133</v>
+        <v>0.03305441625784312</v>
       </c>
       <c r="D13">
-        <v>-0.03419605453980999</v>
+        <v>-0.0003475088838978948</v>
       </c>
       <c r="E13">
-        <v>-0.02268550408992117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02631152058557322</v>
+      </c>
+      <c r="F13">
+        <v>-0.03840873902957092</v>
+      </c>
+      <c r="G13">
+        <v>-0.01947393139785442</v>
+      </c>
+      <c r="H13">
+        <v>0.005732201569964366</v>
+      </c>
+      <c r="I13">
+        <v>0.1097454187449976</v>
+      </c>
+      <c r="J13">
+        <v>-0.01572195040159582</v>
+      </c>
+      <c r="K13">
+        <v>0.07228816478069867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.03440334532159193</v>
+        <v>0.04421007710320689</v>
       </c>
       <c r="C14">
-        <v>-0.008367642979871137</v>
+        <v>0.005566397840691078</v>
       </c>
       <c r="D14">
-        <v>-0.02947741127848343</v>
+        <v>-0.03719736648230218</v>
       </c>
       <c r="E14">
-        <v>-0.01190208646238452</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.01542261537330662</v>
+      </c>
+      <c r="F14">
+        <v>-0.02434203346192888</v>
+      </c>
+      <c r="G14">
+        <v>-0.03842647148593939</v>
+      </c>
+      <c r="H14">
+        <v>0.04613242347970658</v>
+      </c>
+      <c r="I14">
+        <v>0.05747434385220621</v>
+      </c>
+      <c r="J14">
+        <v>0.04845115081457319</v>
+      </c>
+      <c r="K14">
+        <v>0.04582512527771706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.05640800390910917</v>
+        <v>0.04586152027980294</v>
       </c>
       <c r="C15">
-        <v>0.009567504745252307</v>
+        <v>0.014222951523982</v>
       </c>
       <c r="D15">
-        <v>-0.01691878524575832</v>
+        <v>0.003463300466578298</v>
       </c>
       <c r="E15">
-        <v>-0.010975856808566</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.02919598581094722</v>
+      </c>
+      <c r="F15">
+        <v>-0.0305501971439209</v>
+      </c>
+      <c r="G15">
+        <v>-0.02563274491936349</v>
+      </c>
+      <c r="H15">
+        <v>0.008721099224357072</v>
+      </c>
+      <c r="I15">
+        <v>0.02190456364611355</v>
+      </c>
+      <c r="J15">
+        <v>0.02749020891444045</v>
+      </c>
+      <c r="K15">
+        <v>0.08013610355233569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.06446231386120968</v>
+        <v>0.07484712770373181</v>
       </c>
       <c r="C16">
-        <v>0.05224240374310391</v>
+        <v>0.0558437370235229</v>
       </c>
       <c r="D16">
-        <v>-0.04545013187987833</v>
+        <v>-0.03635004468876239</v>
       </c>
       <c r="E16">
-        <v>-0.02429208965380707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.01066720686618446</v>
+      </c>
+      <c r="F16">
+        <v>-0.03558097000163491</v>
+      </c>
+      <c r="G16">
+        <v>-0.03926968441908898</v>
+      </c>
+      <c r="H16">
+        <v>0.01124266581891719</v>
+      </c>
+      <c r="I16">
+        <v>0.06049366174274784</v>
+      </c>
+      <c r="J16">
+        <v>-0.01557205876871298</v>
+      </c>
+      <c r="K16">
+        <v>-0.01737569780315796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1289,28 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1324,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1359,273 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.06976625830962861</v>
+        <v>0.06290270037955313</v>
       </c>
       <c r="C20">
-        <v>0.04412417947182975</v>
+        <v>0.03787981743359636</v>
       </c>
       <c r="D20">
-        <v>-0.03064549153314049</v>
+        <v>-0.01571353149957989</v>
       </c>
       <c r="E20">
-        <v>-0.02519026554621387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0001327832874364771</v>
+      </c>
+      <c r="F20">
+        <v>-0.02338517772489139</v>
+      </c>
+      <c r="G20">
+        <v>-0.03223262622795095</v>
+      </c>
+      <c r="H20">
+        <v>0.01826653556738778</v>
+      </c>
+      <c r="I20">
+        <v>0.1258287543191083</v>
+      </c>
+      <c r="J20">
+        <v>0.01074322453166211</v>
+      </c>
+      <c r="K20">
+        <v>0.02267708998225741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.03773083442494337</v>
+        <v>0.03017924247085294</v>
       </c>
       <c r="C21">
-        <v>0.01906553366786777</v>
+        <v>0.02369080089253759</v>
       </c>
       <c r="D21">
-        <v>0.01301582209670627</v>
+        <v>0.02217293293113287</v>
       </c>
       <c r="E21">
-        <v>-0.01536914823207017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0195795111455852</v>
+      </c>
+      <c r="F21">
+        <v>-0.02119789230066819</v>
+      </c>
+      <c r="G21">
+        <v>-0.00911714968753099</v>
+      </c>
+      <c r="H21">
+        <v>-0.06950391345826762</v>
+      </c>
+      <c r="I21">
+        <v>0.02551500101875038</v>
+      </c>
+      <c r="J21">
+        <v>0.02935094661453111</v>
+      </c>
+      <c r="K21">
+        <v>0.04559875201519195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.1170082159212256</v>
+        <v>0.09472234064517621</v>
       </c>
       <c r="C22">
-        <v>0.09971760741694889</v>
+        <v>0.06128675394948644</v>
       </c>
       <c r="D22">
-        <v>-0.009447734353190745</v>
+        <v>0.2004447533878323</v>
       </c>
       <c r="E22">
-        <v>-0.03288226129659556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.3170990476908432</v>
+      </c>
+      <c r="F22">
+        <v>-0.401103669831294</v>
+      </c>
+      <c r="G22">
+        <v>0.3036951248749068</v>
+      </c>
+      <c r="H22">
+        <v>-0.02807604828038048</v>
+      </c>
+      <c r="I22">
+        <v>-0.2197113663464733</v>
+      </c>
+      <c r="J22">
+        <v>-0.08167048733046589</v>
+      </c>
+      <c r="K22">
+        <v>-0.03925133443964737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1180428238358012</v>
+        <v>0.09571045724889946</v>
       </c>
       <c r="C23">
-        <v>0.09915061099097477</v>
+        <v>0.06164381120931239</v>
       </c>
       <c r="D23">
-        <v>-0.01081773212423193</v>
+        <v>0.1998584002976773</v>
       </c>
       <c r="E23">
-        <v>-0.03408818963967702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.3192502301195169</v>
+      </c>
+      <c r="F23">
+        <v>-0.4049209202355762</v>
+      </c>
+      <c r="G23">
+        <v>0.2983170900414389</v>
+      </c>
+      <c r="H23">
+        <v>-0.02700391618271272</v>
+      </c>
+      <c r="I23">
+        <v>-0.222833529097302</v>
+      </c>
+      <c r="J23">
+        <v>-0.07662805481835078</v>
+      </c>
+      <c r="K23">
+        <v>-0.03895711557167739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08636473278145056</v>
+        <v>0.08423052682957835</v>
       </c>
       <c r="C24">
-        <v>0.04954599736459873</v>
+        <v>0.05526502176673554</v>
       </c>
       <c r="D24">
-        <v>-0.04123308232539823</v>
+        <v>-0.02644695507403612</v>
       </c>
       <c r="E24">
-        <v>-0.03842821947141464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005607222375279157</v>
+      </c>
+      <c r="F24">
+        <v>-0.04124399551179394</v>
+      </c>
+      <c r="G24">
+        <v>-0.05925171559289759</v>
+      </c>
+      <c r="H24">
+        <v>-0.008132574193257958</v>
+      </c>
+      <c r="I24">
+        <v>0.07321999608090342</v>
+      </c>
+      <c r="J24">
+        <v>-0.005427855907807837</v>
+      </c>
+      <c r="K24">
+        <v>-0.02801611456704998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.0828613931100769</v>
+        <v>0.07919771654915457</v>
       </c>
       <c r="C25">
-        <v>0.041270859911639</v>
+        <v>0.04360585381689716</v>
       </c>
       <c r="D25">
-        <v>-0.05611333302278895</v>
+        <v>-0.03747005218551611</v>
       </c>
       <c r="E25">
-        <v>-0.04674306352084864</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01407079784623819</v>
+      </c>
+      <c r="F25">
+        <v>-0.04292088869097841</v>
+      </c>
+      <c r="G25">
+        <v>-0.05353809247794569</v>
+      </c>
+      <c r="H25">
+        <v>0.00183425238797933</v>
+      </c>
+      <c r="I25">
+        <v>0.08574241997163125</v>
+      </c>
+      <c r="J25">
+        <v>-0.003517519393734641</v>
+      </c>
+      <c r="K25">
+        <v>-0.03933552761012625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05482734995813261</v>
+        <v>0.04676145302813457</v>
       </c>
       <c r="C26">
-        <v>0.01579532310631478</v>
+        <v>0.02541531092006145</v>
       </c>
       <c r="D26">
-        <v>0.002062739020774995</v>
+        <v>0.02195048319521093</v>
       </c>
       <c r="E26">
-        <v>-0.03617427973499467</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.006410066679290651</v>
+      </c>
+      <c r="F26">
+        <v>-0.02885765041675182</v>
+      </c>
+      <c r="G26">
+        <v>-0.02693444708806561</v>
+      </c>
+      <c r="H26">
+        <v>0.02550530640429995</v>
+      </c>
+      <c r="I26">
+        <v>0.02805889068358458</v>
+      </c>
+      <c r="J26">
+        <v>0.01345928594655331</v>
+      </c>
+      <c r="K26">
+        <v>0.1130820576823693</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1639,343 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.04062550559705096</v>
+        <v>0.07803540768646852</v>
       </c>
       <c r="C28">
-        <v>-0.2928581273649226</v>
+        <v>-0.2974520869222919</v>
       </c>
       <c r="D28">
-        <v>0.0401208318134291</v>
+        <v>0.01347961779208537</v>
       </c>
       <c r="E28">
-        <v>-0.07665915301070736</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.01393019005276419</v>
+      </c>
+      <c r="F28">
+        <v>-0.02564086883297506</v>
+      </c>
+      <c r="G28">
+        <v>-0.0286793895571025</v>
+      </c>
+      <c r="H28">
+        <v>-0.04466355352871314</v>
+      </c>
+      <c r="I28">
+        <v>-0.02878298115689988</v>
+      </c>
+      <c r="J28">
+        <v>-0.02588377872175706</v>
+      </c>
+      <c r="K28">
+        <v>0.06986459118147384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05716783518331701</v>
+        <v>0.05505903635783922</v>
       </c>
       <c r="C29">
-        <v>-0.01476113938719855</v>
+        <v>0.005040734950684341</v>
       </c>
       <c r="D29">
-        <v>-0.03957275810397019</v>
+        <v>-0.03349783058156321</v>
       </c>
       <c r="E29">
-        <v>-0.02697665855040688</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01567224803117</v>
+      </c>
+      <c r="F29">
+        <v>-0.04167859177048441</v>
+      </c>
+      <c r="G29">
+        <v>-0.02934922400530967</v>
+      </c>
+      <c r="H29">
+        <v>0.05900319303087095</v>
+      </c>
+      <c r="I29">
+        <v>0.05341571936672664</v>
+      </c>
+      <c r="J29">
+        <v>0.0257514017315122</v>
+      </c>
+      <c r="K29">
+        <v>0.04508925053329943</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1526315375290654</v>
+        <v>0.1319289363932674</v>
       </c>
       <c r="C30">
-        <v>0.05795495896253076</v>
+        <v>0.05344272697038636</v>
       </c>
       <c r="D30">
-        <v>-0.08140686522212871</v>
+        <v>-0.03353230309581943</v>
       </c>
       <c r="E30">
-        <v>-0.05124556347786226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04819882740871717</v>
+      </c>
+      <c r="F30">
+        <v>-0.1068402031457872</v>
+      </c>
+      <c r="G30">
+        <v>-0.05500586874380899</v>
+      </c>
+      <c r="H30">
+        <v>-0.09983220496002694</v>
+      </c>
+      <c r="I30">
+        <v>0.3252826077823583</v>
+      </c>
+      <c r="J30">
+        <v>-0.03194026559070254</v>
+      </c>
+      <c r="K30">
+        <v>0.1807885883645826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05933406727903297</v>
+        <v>0.04947080745776756</v>
       </c>
       <c r="C31">
-        <v>0.008753431088222038</v>
+        <v>0.03344800798721274</v>
       </c>
       <c r="D31">
-        <v>-0.0302880212135412</v>
+        <v>-0.01355521151972342</v>
       </c>
       <c r="E31">
-        <v>-0.006411387963468055</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02197269841029884</v>
+      </c>
+      <c r="F31">
+        <v>-0.01276875245824747</v>
+      </c>
+      <c r="G31">
+        <v>-0.005077551462774121</v>
+      </c>
+      <c r="H31">
+        <v>0.05022339321933503</v>
+      </c>
+      <c r="I31">
+        <v>0.04090308751911048</v>
+      </c>
+      <c r="J31">
+        <v>0.03581670535629532</v>
+      </c>
+      <c r="K31">
+        <v>0.02492297606837301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.04719882192714171</v>
+        <v>0.04994585082139083</v>
       </c>
       <c r="C32">
-        <v>0.01577844857484498</v>
+        <v>-0.003699810938536421</v>
       </c>
       <c r="D32">
-        <v>-0.01379162269736895</v>
+        <v>0.01711107939254826</v>
       </c>
       <c r="E32">
-        <v>-0.00309403841686712</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.05593916705615477</v>
+      </c>
+      <c r="F32">
+        <v>-0.06239065867433306</v>
+      </c>
+      <c r="G32">
+        <v>0.002359563260899699</v>
+      </c>
+      <c r="H32">
+        <v>0.002511193354982043</v>
+      </c>
+      <c r="I32">
+        <v>-0.02251835163829625</v>
+      </c>
+      <c r="J32">
+        <v>-0.06916141038385765</v>
+      </c>
+      <c r="K32">
+        <v>0.1017505980092059</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.103332907666486</v>
+        <v>0.1036628694464986</v>
       </c>
       <c r="C33">
-        <v>0.02486632492847288</v>
+        <v>0.04383720031423229</v>
       </c>
       <c r="D33">
-        <v>-0.0432144897517855</v>
+        <v>-0.01854920332530916</v>
       </c>
       <c r="E33">
-        <v>-0.008495679574761805</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03176689564217709</v>
+      </c>
+      <c r="F33">
+        <v>-0.01533502882255732</v>
+      </c>
+      <c r="G33">
+        <v>-0.009566029393703601</v>
+      </c>
+      <c r="H33">
+        <v>0.02093463960091168</v>
+      </c>
+      <c r="I33">
+        <v>0.06694941279043004</v>
+      </c>
+      <c r="J33">
+        <v>0.02604919729680499</v>
+      </c>
+      <c r="K33">
+        <v>0.02336059883241064</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.0653412914145373</v>
+        <v>0.0706919825226977</v>
       </c>
       <c r="C34">
-        <v>0.05406755902823338</v>
+        <v>0.04699956897871468</v>
       </c>
       <c r="D34">
-        <v>-0.02900623245570942</v>
+        <v>-0.02049796763427461</v>
       </c>
       <c r="E34">
-        <v>-0.0265724846478239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.004076621147665858</v>
+      </c>
+      <c r="F34">
+        <v>-0.02771283800245701</v>
+      </c>
+      <c r="G34">
+        <v>-0.04010105361442151</v>
+      </c>
+      <c r="H34">
+        <v>0.01989393849605425</v>
+      </c>
+      <c r="I34">
+        <v>0.06388907074800977</v>
+      </c>
+      <c r="J34">
+        <v>0.01181303083446868</v>
+      </c>
+      <c r="K34">
+        <v>-0.05118895864793774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04346893034652884</v>
+        <v>0.03754981692333637</v>
       </c>
       <c r="C35">
-        <v>0.009713283674354988</v>
+        <v>0.0176923724752313</v>
       </c>
       <c r="D35">
-        <v>-0.02224774298038608</v>
+        <v>-0.0153838958441578</v>
       </c>
       <c r="E35">
-        <v>-0.004315157262533457</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.0186152804278856</v>
+      </c>
+      <c r="F35">
+        <v>-0.00607398520060713</v>
+      </c>
+      <c r="G35">
+        <v>-0.01157137846865129</v>
+      </c>
+      <c r="H35">
+        <v>0.01977546479329041</v>
+      </c>
+      <c r="I35">
+        <v>0.0600083318088951</v>
+      </c>
+      <c r="J35">
+        <v>0.006913245082698423</v>
+      </c>
+      <c r="K35">
+        <v>0.002356732740723879</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03964436850510929</v>
+        <v>0.03480045773039341</v>
       </c>
       <c r="C36">
-        <v>0.0146561278350056</v>
+        <v>0.01391116703202245</v>
       </c>
       <c r="D36">
-        <v>-0.01514969832520771</v>
+        <v>-0.000926100345154725</v>
       </c>
       <c r="E36">
-        <v>-0.03335041467423584</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.006493999799398406</v>
+      </c>
+      <c r="F36">
+        <v>-0.04175940668023256</v>
+      </c>
+      <c r="G36">
+        <v>-0.02427187500381665</v>
+      </c>
+      <c r="H36">
+        <v>0.01192153442540028</v>
+      </c>
+      <c r="I36">
+        <v>0.06887254091727688</v>
+      </c>
+      <c r="J36">
+        <v>0.01735501970121569</v>
+      </c>
+      <c r="K36">
+        <v>0.03563123477374559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1989,168 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.06423365839984714</v>
+        <v>0.05526314837175565</v>
       </c>
       <c r="C38">
-        <v>0.003191599186146999</v>
+        <v>0.02730841220043551</v>
       </c>
       <c r="D38">
-        <v>0.0112775353854111</v>
+        <v>0.02423961373289488</v>
       </c>
       <c r="E38">
-        <v>0.01397919992807839</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003568809919372235</v>
+      </c>
+      <c r="F38">
+        <v>-0.01326467314590214</v>
+      </c>
+      <c r="G38">
+        <v>0.002149507083543394</v>
+      </c>
+      <c r="H38">
+        <v>0.02414725724600515</v>
+      </c>
+      <c r="I38">
+        <v>-0.01295400463639919</v>
+      </c>
+      <c r="J38">
+        <v>-0.03863019585392769</v>
+      </c>
+      <c r="K38">
+        <v>0.05763184803653865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.09542022735070968</v>
+        <v>0.09925816364353784</v>
       </c>
       <c r="C39">
-        <v>0.03437392896571777</v>
+        <v>0.04733760412261339</v>
       </c>
       <c r="D39">
-        <v>-0.04916022659617703</v>
+        <v>-0.03501774958900829</v>
       </c>
       <c r="E39">
-        <v>-0.007585669613800926</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01888091900583507</v>
+      </c>
+      <c r="F39">
+        <v>-0.03591701167516848</v>
+      </c>
+      <c r="G39">
+        <v>-0.04804812660586136</v>
+      </c>
+      <c r="H39">
+        <v>-0.003264330627128547</v>
+      </c>
+      <c r="I39">
+        <v>0.1165378437676885</v>
+      </c>
+      <c r="J39">
+        <v>-0.1081255441311033</v>
+      </c>
+      <c r="K39">
+        <v>-0.03208877118644089</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.07395853000199037</v>
+        <v>0.05032760950763649</v>
       </c>
       <c r="C40">
-        <v>0.01414039896708564</v>
+        <v>0.04157187415280666</v>
       </c>
       <c r="D40">
-        <v>-0.03000570909982135</v>
+        <v>0.02496039646851591</v>
       </c>
       <c r="E40">
-        <v>-0.02231882648412349</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.05386461799299856</v>
+      </c>
+      <c r="F40">
+        <v>-0.04423296876890297</v>
+      </c>
+      <c r="G40">
+        <v>-0.05490244663177181</v>
+      </c>
+      <c r="H40">
+        <v>-0.08850334353079402</v>
+      </c>
+      <c r="I40">
+        <v>0.2241605737787999</v>
+      </c>
+      <c r="J40">
+        <v>-0.1938404279458233</v>
+      </c>
+      <c r="K40">
+        <v>-0.02285357392651952</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.06230843913825719</v>
+        <v>0.05073420694572345</v>
       </c>
       <c r="C41">
-        <v>0.02287334521201449</v>
+        <v>0.03190170662812179</v>
       </c>
       <c r="D41">
-        <v>-0.01196232534276606</v>
+        <v>-0.003718337389381834</v>
       </c>
       <c r="E41">
-        <v>0.00129975062075947</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.009120609905824435</v>
+      </c>
+      <c r="F41">
+        <v>0.01158446474356549</v>
+      </c>
+      <c r="G41">
+        <v>-0.02003429570325355</v>
+      </c>
+      <c r="H41">
+        <v>0.03508107972662652</v>
+      </c>
+      <c r="I41">
+        <v>0.02887992982342238</v>
+      </c>
+      <c r="J41">
+        <v>-0.03552549399832187</v>
+      </c>
+      <c r="K41">
+        <v>0.02879695050607946</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2164,98 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.06165640447750817</v>
+        <v>0.06228499806122231</v>
       </c>
       <c r="C43">
-        <v>0.007781036498324702</v>
+        <v>0.03085274594089983</v>
       </c>
       <c r="D43">
-        <v>-0.02380791381064614</v>
+        <v>-0.01759214710517212</v>
       </c>
       <c r="E43">
-        <v>-0.01827053538602397</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.002809957967443118</v>
+      </c>
+      <c r="F43">
+        <v>-0.02421649792123316</v>
+      </c>
+      <c r="G43">
+        <v>0.003985276600302185</v>
+      </c>
+      <c r="H43">
+        <v>0.0528657072171845</v>
+      </c>
+      <c r="I43">
+        <v>0.02670980654480588</v>
+      </c>
+      <c r="J43">
+        <v>-0.008905405176313242</v>
+      </c>
+      <c r="K43">
+        <v>0.007529337889719439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.09072942261610983</v>
+        <v>0.09329898373340227</v>
       </c>
       <c r="C44">
-        <v>0.0482850108091389</v>
+        <v>0.05122583910921054</v>
       </c>
       <c r="D44">
-        <v>-0.034097761969544</v>
+        <v>-0.00697769794882211</v>
       </c>
       <c r="E44">
-        <v>-0.08083314082184744</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.00916142823632536</v>
+      </c>
+      <c r="F44">
+        <v>-0.1367731305473065</v>
+      </c>
+      <c r="G44">
+        <v>-0.07971831511207579</v>
+      </c>
+      <c r="H44">
+        <v>0.01995342114281236</v>
+      </c>
+      <c r="I44">
+        <v>0.1491045468265714</v>
+      </c>
+      <c r="J44">
+        <v>-0.03287251959235453</v>
+      </c>
+      <c r="K44">
+        <v>-0.01885246766824211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2269,238 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.03258030640627996</v>
+        <v>0.04589425341860257</v>
       </c>
       <c r="C46">
-        <v>0.02717911136852533</v>
+        <v>0.02855825007869178</v>
       </c>
       <c r="D46">
-        <v>-0.02141345569439433</v>
+        <v>-0.02023960091658584</v>
       </c>
       <c r="E46">
-        <v>-0.02349938616453825</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.01118245066904798</v>
+      </c>
+      <c r="F46">
+        <v>-0.04753662165938757</v>
+      </c>
+      <c r="G46">
+        <v>-0.006550119270274896</v>
+      </c>
+      <c r="H46">
+        <v>0.009183287019808174</v>
+      </c>
+      <c r="I46">
+        <v>0.01599646113420915</v>
+      </c>
+      <c r="J46">
+        <v>0.02966568884157573</v>
+      </c>
+      <c r="K46">
+        <v>0.04214037632922284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.03777497867750976</v>
+        <v>0.04691502835400135</v>
       </c>
       <c r="C47">
-        <v>-0.01159827578424711</v>
+        <v>0.004336677646853901</v>
       </c>
       <c r="D47">
-        <v>-0.01125075365011926</v>
+        <v>-0.005001565820393818</v>
       </c>
       <c r="E47">
-        <v>-0.01901670701931802</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02900613183671017</v>
+      </c>
+      <c r="F47">
+        <v>-0.02933461236573472</v>
+      </c>
+      <c r="G47">
+        <v>0.0179667611101267</v>
+      </c>
+      <c r="H47">
+        <v>0.01321760647164212</v>
+      </c>
+      <c r="I47">
+        <v>0.02472935572155322</v>
+      </c>
+      <c r="J47">
+        <v>0.0414889109718009</v>
+      </c>
+      <c r="K47">
+        <v>-0.004311582743859853</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.05216432057361241</v>
+        <v>0.04514920060120606</v>
       </c>
       <c r="C48">
-        <v>0.01795871898893604</v>
+        <v>0.0160122363639889</v>
       </c>
       <c r="D48">
-        <v>-0.03069669340339994</v>
+        <v>0.002508995382317499</v>
       </c>
       <c r="E48">
-        <v>-0.03004869331062569</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.030857277109364</v>
+      </c>
+      <c r="F48">
+        <v>-0.04023121880423087</v>
+      </c>
+      <c r="G48">
+        <v>-0.009217545148317996</v>
+      </c>
+      <c r="H48">
+        <v>-0.004970200195589748</v>
+      </c>
+      <c r="I48">
+        <v>0.04755673634454088</v>
+      </c>
+      <c r="J48">
+        <v>0.01788195726540564</v>
+      </c>
+      <c r="K48">
+        <v>0.04130349026339322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.1469849297516137</v>
+        <v>0.2015317743606283</v>
       </c>
       <c r="C49">
-        <v>-0.009424611786072413</v>
+        <v>0.008238775047120365</v>
       </c>
       <c r="D49">
-        <v>-0.07154491703042613</v>
+        <v>-0.1457342404810091</v>
       </c>
       <c r="E49">
-        <v>-0.01785184555179755</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.1104601081868037</v>
+      </c>
+      <c r="F49">
+        <v>0.09409173650173361</v>
+      </c>
+      <c r="G49">
+        <v>0.1300049752852443</v>
+      </c>
+      <c r="H49">
+        <v>-0.1521768741921682</v>
+      </c>
+      <c r="I49">
+        <v>-0.1400052125448812</v>
+      </c>
+      <c r="J49">
+        <v>-0.08330498783172903</v>
+      </c>
+      <c r="K49">
+        <v>-0.1980692959914283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.06488317886128295</v>
+        <v>0.05690801027134215</v>
       </c>
       <c r="C50">
-        <v>0.01354892017309369</v>
+        <v>0.02873086219614218</v>
       </c>
       <c r="D50">
-        <v>-0.03660509018556512</v>
+        <v>-0.01801593222826411</v>
       </c>
       <c r="E50">
-        <v>-0.008674556443001935</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.03316305912108114</v>
+      </c>
+      <c r="F50">
+        <v>-0.01792906960578408</v>
+      </c>
+      <c r="G50">
+        <v>-0.01712642968924278</v>
+      </c>
+      <c r="H50">
+        <v>0.05841328058480524</v>
+      </c>
+      <c r="I50">
+        <v>0.03155840745581142</v>
+      </c>
+      <c r="J50">
+        <v>0.05201727100835406</v>
+      </c>
+      <c r="K50">
+        <v>0.03689811086186272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.0324743817480613</v>
+        <v>0.03963379795240769</v>
       </c>
       <c r="C51">
-        <v>-0.009156025524797801</v>
+        <v>-0.004104121700057527</v>
       </c>
       <c r="D51">
-        <v>0.01213714156282618</v>
+        <v>0.012426217986877</v>
       </c>
       <c r="E51">
-        <v>-0.003372615998733887</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.02797070571196894</v>
+      </c>
+      <c r="F51">
+        <v>-0.003556983652223413</v>
+      </c>
+      <c r="G51">
+        <v>0.02059848037854835</v>
+      </c>
+      <c r="H51">
+        <v>-0.01316405570908915</v>
+      </c>
+      <c r="I51">
+        <v>0.005027497718935151</v>
+      </c>
+      <c r="J51">
+        <v>-0.03822216239348532</v>
+      </c>
+      <c r="K51">
+        <v>-0.06736358737948039</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2514,168 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1555454067871258</v>
+        <v>0.156248000766162</v>
       </c>
       <c r="C53">
-        <v>-0.03990976217625491</v>
+        <v>0.01101470707174305</v>
       </c>
       <c r="D53">
-        <v>-0.05377160794095921</v>
+        <v>-0.06028612848373218</v>
       </c>
       <c r="E53">
-        <v>-0.005171801702402814</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.01108340795162601</v>
+      </c>
+      <c r="F53">
+        <v>0.0220428039452702</v>
+      </c>
+      <c r="G53">
+        <v>0.01817678867676718</v>
+      </c>
+      <c r="H53">
+        <v>0.2357877513338655</v>
+      </c>
+      <c r="I53">
+        <v>-0.05384439888144507</v>
+      </c>
+      <c r="J53">
+        <v>0.05268718950944436</v>
+      </c>
+      <c r="K53">
+        <v>-0.06105052436053603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.06108852671749231</v>
+        <v>0.06128190479881428</v>
       </c>
       <c r="C54">
-        <v>0.005602397773168598</v>
+        <v>0.006181988349489875</v>
       </c>
       <c r="D54">
-        <v>-0.02306949289708249</v>
+        <v>-0.007835381358614054</v>
       </c>
       <c r="E54">
-        <v>-0.03424866800156023</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.03892188130567927</v>
+      </c>
+      <c r="F54">
+        <v>-0.07181799915375334</v>
+      </c>
+      <c r="G54">
+        <v>-0.04590493393683383</v>
+      </c>
+      <c r="H54">
+        <v>0.0007936224748062593</v>
+      </c>
+      <c r="I54">
+        <v>0.1231508049479247</v>
+      </c>
+      <c r="J54">
+        <v>0.04225205089036889</v>
+      </c>
+      <c r="K54">
+        <v>0.08380381832783393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09719938963243142</v>
+        <v>0.09780973134182527</v>
       </c>
       <c r="C55">
-        <v>-0.0101799360361062</v>
+        <v>0.02308461910581898</v>
       </c>
       <c r="D55">
-        <v>-0.05049960471307974</v>
+        <v>-0.04474899248428154</v>
       </c>
       <c r="E55">
-        <v>-0.03070808702208623</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.00289849544510335</v>
+      </c>
+      <c r="F55">
+        <v>-0.01561943059856154</v>
+      </c>
+      <c r="G55">
+        <v>-0.02853771400543169</v>
+      </c>
+      <c r="H55">
+        <v>0.1691591709002903</v>
+      </c>
+      <c r="I55">
+        <v>0.008519615035512086</v>
+      </c>
+      <c r="J55">
+        <v>0.04984221835292509</v>
+      </c>
+      <c r="K55">
+        <v>-0.0440979508017837</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1544700864934025</v>
+        <v>0.1531953778413949</v>
       </c>
       <c r="C56">
-        <v>-0.03578921492937153</v>
+        <v>0.03063305376164797</v>
       </c>
       <c r="D56">
-        <v>-0.06951637111543409</v>
+        <v>-0.06511069034901572</v>
       </c>
       <c r="E56">
-        <v>-0.0436758976758377</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.009211704692497491</v>
+      </c>
+      <c r="F56">
+        <v>-7.609232969303774e-05</v>
+      </c>
+      <c r="G56">
+        <v>-0.01108355485493005</v>
+      </c>
+      <c r="H56">
+        <v>0.2337220979854479</v>
+      </c>
+      <c r="I56">
+        <v>-0.05775794953833076</v>
+      </c>
+      <c r="J56">
+        <v>0.01462742021958178</v>
+      </c>
+      <c r="K56">
+        <v>-0.02262275674801907</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2689,1358 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.1230838939380099</v>
+        <v>0.08189438139597296</v>
       </c>
       <c r="C58">
-        <v>0.05761039878115506</v>
+        <v>0.04568781127959994</v>
       </c>
       <c r="D58">
-        <v>0.09742257348531407</v>
+        <v>0.1586727150702772</v>
       </c>
       <c r="E58">
-        <v>-0.1258099404459551</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.01585879594173771</v>
+      </c>
+      <c r="F58">
+        <v>-0.08535393471481854</v>
+      </c>
+      <c r="G58">
+        <v>0.1088395408577747</v>
+      </c>
+      <c r="H58">
+        <v>-0.2829731827009614</v>
+      </c>
+      <c r="I58">
+        <v>0.4431638512145689</v>
+      </c>
+      <c r="J58">
+        <v>0.1123124608871582</v>
+      </c>
+      <c r="K58">
+        <v>-0.2286596407568326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1193649181841616</v>
+        <v>0.1597535640816182</v>
       </c>
       <c r="C59">
-        <v>-0.4365835965559012</v>
+        <v>-0.3601979633037682</v>
       </c>
       <c r="D59">
-        <v>0.07673401591171153</v>
+        <v>0.03148743961804314</v>
       </c>
       <c r="E59">
-        <v>-0.08592601467958651</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.03186708694010147</v>
+      </c>
+      <c r="F59">
+        <v>-0.006785026284403976</v>
+      </c>
+      <c r="G59">
+        <v>-0.0156290597674513</v>
+      </c>
+      <c r="H59">
+        <v>0.05380813704333392</v>
+      </c>
+      <c r="I59">
+        <v>0.007526130721793343</v>
+      </c>
+      <c r="J59">
+        <v>-0.06870100253869027</v>
+      </c>
+      <c r="K59">
+        <v>-0.01224006847166675</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2196714479883377</v>
+        <v>0.2468668883947793</v>
       </c>
       <c r="C60">
-        <v>-0.03264076515502442</v>
+        <v>0.03024010658580167</v>
       </c>
       <c r="D60">
-        <v>-0.0598140155543656</v>
+        <v>-0.103439280108605</v>
       </c>
       <c r="E60">
-        <v>-0.05575258551465818</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.09678599502271965</v>
+      </c>
+      <c r="F60">
+        <v>0.04795643122956435</v>
+      </c>
+      <c r="G60">
+        <v>0.01851154915083041</v>
+      </c>
+      <c r="H60">
+        <v>-0.1003111073408358</v>
+      </c>
+      <c r="I60">
+        <v>-0.1850235096812302</v>
+      </c>
+      <c r="J60">
+        <v>0.0604649915296718</v>
+      </c>
+      <c r="K60">
+        <v>-0.1350737507031246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.08032190513480583</v>
+        <v>0.08839521397458933</v>
       </c>
       <c r="C61">
-        <v>0.01710870508721221</v>
+        <v>0.03422749591293094</v>
       </c>
       <c r="D61">
-        <v>-0.03494723955963603</v>
+        <v>-0.03258776537595919</v>
       </c>
       <c r="E61">
-        <v>-0.006485106023721456</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.006668113821882554</v>
+      </c>
+      <c r="F61">
+        <v>-0.02593947706807857</v>
+      </c>
+      <c r="G61">
+        <v>-0.05022573313621919</v>
+      </c>
+      <c r="H61">
+        <v>0.04661446253448515</v>
+      </c>
+      <c r="I61">
+        <v>0.07863350925274167</v>
+      </c>
+      <c r="J61">
+        <v>-0.05467787445259824</v>
+      </c>
+      <c r="K61">
+        <v>-0.00755278584073067</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1473900697821194</v>
+        <v>0.1459462269542053</v>
       </c>
       <c r="C62">
-        <v>-0.03008520233155738</v>
+        <v>0.03350085321827356</v>
       </c>
       <c r="D62">
-        <v>-0.0274062886992609</v>
+        <v>-0.03620634924744511</v>
       </c>
       <c r="E62">
-        <v>0.01016071654163205</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.0001571865260664258</v>
+      </c>
+      <c r="F62">
+        <v>0.04983391351423194</v>
+      </c>
+      <c r="G62">
+        <v>-0.02990228263081698</v>
+      </c>
+      <c r="H62">
+        <v>0.2273825480621812</v>
+      </c>
+      <c r="I62">
+        <v>-0.08690975752812433</v>
+      </c>
+      <c r="J62">
+        <v>0.07315799865291371</v>
+      </c>
+      <c r="K62">
+        <v>0.001282483488350972</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.06157304136409952</v>
+        <v>0.05401188343589852</v>
       </c>
       <c r="C63">
-        <v>0.02275887383586228</v>
+        <v>0.0197396076753328</v>
       </c>
       <c r="D63">
-        <v>-0.02520031224127735</v>
+        <v>-0.01221542742996825</v>
       </c>
       <c r="E63">
-        <v>-0.01630216688934517</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02589811051446791</v>
+      </c>
+      <c r="F63">
+        <v>-0.02198840528569928</v>
+      </c>
+      <c r="G63">
+        <v>-0.05344952938788657</v>
+      </c>
+      <c r="H63">
+        <v>0.01394113239755613</v>
+      </c>
+      <c r="I63">
+        <v>0.03585999104982902</v>
+      </c>
+      <c r="J63">
+        <v>0.03894713842066588</v>
+      </c>
+      <c r="K63">
+        <v>0.04265201575693741</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1031106830629408</v>
+        <v>0.1075933620204584</v>
       </c>
       <c r="C64">
-        <v>-0.004051183683869747</v>
+        <v>0.01748018816797576</v>
       </c>
       <c r="D64">
-        <v>-0.0466983972569819</v>
+        <v>-0.04431910902407268</v>
       </c>
       <c r="E64">
-        <v>-0.03027686407925059</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006941792410620354</v>
+      </c>
+      <c r="F64">
+        <v>-0.05866704422497745</v>
+      </c>
+      <c r="G64">
+        <v>-0.05037528072816898</v>
+      </c>
+      <c r="H64">
+        <v>-0.01991531943999196</v>
+      </c>
+      <c r="I64">
+        <v>0.05128488894858647</v>
+      </c>
+      <c r="J64">
+        <v>-0.02916856785638007</v>
+      </c>
+      <c r="K64">
+        <v>0.01125835208749486</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1221662267618627</v>
+        <v>0.1320970135402776</v>
       </c>
       <c r="C65">
-        <v>0.02264193198422803</v>
+        <v>0.007435370581903438</v>
       </c>
       <c r="D65">
-        <v>-0.0372677637078702</v>
+        <v>-0.04842754231237577</v>
       </c>
       <c r="E65">
-        <v>-0.05735434023458126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.007309312164494473</v>
+      </c>
+      <c r="F65">
+        <v>-0.02505639477341791</v>
+      </c>
+      <c r="G65">
+        <v>-0.09075893777658364</v>
+      </c>
+      <c r="H65">
+        <v>-0.2513950964628658</v>
+      </c>
+      <c r="I65">
+        <v>-0.1310375353688736</v>
+      </c>
+      <c r="J65">
+        <v>0.641828838362154</v>
+      </c>
+      <c r="K65">
+        <v>0.05302791387126517</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1595970185323377</v>
+        <v>0.1490477800934955</v>
       </c>
       <c r="C66">
-        <v>0.06294820344727393</v>
+        <v>0.09024407585568857</v>
       </c>
       <c r="D66">
-        <v>-0.06456145118046189</v>
+        <v>-0.04962624226768651</v>
       </c>
       <c r="E66">
-        <v>-0.01465947396422379</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.01167925562041641</v>
+      </c>
+      <c r="F66">
+        <v>-0.01807659382087487</v>
+      </c>
+      <c r="G66">
+        <v>-0.08740194571361233</v>
+      </c>
+      <c r="H66">
+        <v>0.02768477200294305</v>
+      </c>
+      <c r="I66">
+        <v>0.1788065733049447</v>
+      </c>
+      <c r="J66">
+        <v>-0.177297185990327</v>
+      </c>
+      <c r="K66">
+        <v>0.01300215443196465</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.09453305877750556</v>
+        <v>0.09793135211208397</v>
       </c>
       <c r="C67">
-        <v>0.003057681785578474</v>
+        <v>0.03648540663262213</v>
       </c>
       <c r="D67">
-        <v>0.01547587810518064</v>
+        <v>0.00847738409727908</v>
       </c>
       <c r="E67">
-        <v>-0.003109583540785827</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.02576181829633656</v>
+      </c>
+      <c r="F67">
+        <v>-0.009176864529481825</v>
+      </c>
+      <c r="G67">
+        <v>0.01029139079314422</v>
+      </c>
+      <c r="H67">
+        <v>0.02355356545309937</v>
+      </c>
+      <c r="I67">
+        <v>-0.03227100199594617</v>
+      </c>
+      <c r="J67">
+        <v>-0.07141682606748594</v>
+      </c>
+      <c r="K67">
+        <v>0.04204408468813659</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.03875690859772882</v>
+        <v>0.07261800885010743</v>
       </c>
       <c r="C68">
-        <v>-0.2527586852962532</v>
+        <v>-0.2804561821969164</v>
       </c>
       <c r="D68">
-        <v>0.04924720775588529</v>
+        <v>0.02517203577823781</v>
       </c>
       <c r="E68">
-        <v>-0.04226445014319349</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.009302901592313589</v>
+      </c>
+      <c r="F68">
+        <v>-0.03993370361736779</v>
+      </c>
+      <c r="G68">
+        <v>0.003435557080565057</v>
+      </c>
+      <c r="H68">
+        <v>0.01212858220216653</v>
+      </c>
+      <c r="I68">
+        <v>0.02249665148528764</v>
+      </c>
+      <c r="J68">
+        <v>0.04795204786098441</v>
+      </c>
+      <c r="K68">
+        <v>0.01087792699758895</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.06833541008278458</v>
+        <v>0.05725017441735068</v>
       </c>
       <c r="C69">
-        <v>0.01088219370158505</v>
+        <v>0.01699726787864677</v>
       </c>
       <c r="D69">
-        <v>-0.0022089801193801</v>
+        <v>0.01756259967513919</v>
       </c>
       <c r="E69">
-        <v>-0.01500356377673657</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01500722598776336</v>
+      </c>
+      <c r="F69">
+        <v>-0.006053734622160134</v>
+      </c>
+      <c r="G69">
+        <v>0.0002202098091915471</v>
+      </c>
+      <c r="H69">
+        <v>0.03084235117286383</v>
+      </c>
+      <c r="I69">
+        <v>0.01629504799390925</v>
+      </c>
+      <c r="J69">
+        <v>0.005487125287732505</v>
+      </c>
+      <c r="K69">
+        <v>-0.01016512607364947</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.01312168234046189</v>
+        <v>0.03885243075604464</v>
       </c>
       <c r="C70">
-        <v>-0.008326460774059831</v>
+        <v>0.002825800243543515</v>
       </c>
       <c r="D70">
-        <v>0.00733717605631908</v>
+        <v>0.002459217948622814</v>
       </c>
       <c r="E70">
-        <v>0.01598873354592873</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.02611306094274388</v>
+      </c>
+      <c r="F70">
+        <v>0.04221830191329913</v>
+      </c>
+      <c r="G70">
+        <v>0.01073189466413118</v>
+      </c>
+      <c r="H70">
+        <v>-0.03723365650644134</v>
+      </c>
+      <c r="I70">
+        <v>-0.007834624492032066</v>
+      </c>
+      <c r="J70">
+        <v>-0.04582706438702701</v>
+      </c>
+      <c r="K70">
+        <v>0.1429589349746511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.03429305431399186</v>
+        <v>0.08048602650203872</v>
       </c>
       <c r="C71">
-        <v>-0.2893315217614957</v>
+        <v>-0.3035366207611372</v>
       </c>
       <c r="D71">
-        <v>0.05510919769098823</v>
+        <v>0.01253612736310307</v>
       </c>
       <c r="E71">
-        <v>-0.08220014698123881</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.006741940924029573</v>
+      </c>
+      <c r="F71">
+        <v>-0.04684811096325357</v>
+      </c>
+      <c r="G71">
+        <v>-0.0004301431478884229</v>
+      </c>
+      <c r="H71">
+        <v>0.01448191350940723</v>
+      </c>
+      <c r="I71">
+        <v>0.02217925798243108</v>
+      </c>
+      <c r="J71">
+        <v>0.01547882041293221</v>
+      </c>
+      <c r="K71">
+        <v>0.001606373504975147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1477782348123581</v>
+        <v>0.1382319231794574</v>
       </c>
       <c r="C72">
-        <v>-0.04596401926668518</v>
+        <v>-0.00182510286251547</v>
       </c>
       <c r="D72">
-        <v>-0.0227576154924166</v>
+        <v>0.01507519579925799</v>
       </c>
       <c r="E72">
-        <v>0.2314507305926599</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.1176453355337378</v>
+      </c>
+      <c r="F72">
+        <v>0.1309643086954184</v>
+      </c>
+      <c r="G72">
+        <v>-0.1135384681609021</v>
+      </c>
+      <c r="H72">
+        <v>0.005379124623645282</v>
+      </c>
+      <c r="I72">
+        <v>-0.05050688014387467</v>
+      </c>
+      <c r="J72">
+        <v>0.1112624711796824</v>
+      </c>
+      <c r="K72">
+        <v>-0.1202016533043183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2564532886628591</v>
+        <v>0.2522452603022737</v>
       </c>
       <c r="C73">
-        <v>0.04266297213206421</v>
+        <v>0.09769866362279681</v>
       </c>
       <c r="D73">
-        <v>-0.08482932052441298</v>
+        <v>-0.1345594452258345</v>
       </c>
       <c r="E73">
-        <v>-0.06385259374766794</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2417689547375693</v>
+      </c>
+      <c r="F73">
+        <v>0.1622186491488432</v>
+      </c>
+      <c r="G73">
+        <v>0.1980214468544382</v>
+      </c>
+      <c r="H73">
+        <v>-0.2382352621310619</v>
+      </c>
+      <c r="I73">
+        <v>-0.08550215169926538</v>
+      </c>
+      <c r="J73">
+        <v>-0.1920921013386735</v>
+      </c>
+      <c r="K73">
+        <v>-0.5186461131356703</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.08670241665175595</v>
+        <v>0.09278131842231509</v>
       </c>
       <c r="C74">
-        <v>-0.02490309040860398</v>
+        <v>0.02562139993570819</v>
       </c>
       <c r="D74">
-        <v>-0.05399015495684468</v>
+        <v>-0.05225370036524855</v>
       </c>
       <c r="E74">
-        <v>-0.002564471922109803</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.00990362680918856</v>
+      </c>
+      <c r="F74">
+        <v>0.009384583904029577</v>
+      </c>
+      <c r="G74">
+        <v>0.02915502662415663</v>
+      </c>
+      <c r="H74">
+        <v>0.1386635960583023</v>
+      </c>
+      <c r="I74">
+        <v>0.01350816085349764</v>
+      </c>
+      <c r="J74">
+        <v>0.0184941553102023</v>
+      </c>
+      <c r="K74">
+        <v>-0.06427808216357897</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.1209601137144186</v>
+        <v>0.1052452376506895</v>
       </c>
       <c r="C75">
-        <v>-0.004625378836267093</v>
+        <v>0.02691453657401099</v>
       </c>
       <c r="D75">
-        <v>-0.005404763292098737</v>
+        <v>0.01620034229602821</v>
       </c>
       <c r="E75">
-        <v>-0.02260510684265837</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.01112701364259423</v>
+      </c>
+      <c r="F75">
+        <v>0.01085692652837103</v>
+      </c>
+      <c r="G75">
+        <v>0.009706762518643728</v>
+      </c>
+      <c r="H75">
+        <v>0.1234089351139874</v>
+      </c>
+      <c r="I75">
+        <v>-0.03890718379824753</v>
+      </c>
+      <c r="J75">
+        <v>0.02934232373950001</v>
+      </c>
+      <c r="K75">
+        <v>0.004185739366456056</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1444898916671875</v>
+        <v>0.1339640229086843</v>
       </c>
       <c r="C76">
-        <v>-0.01104426221786343</v>
+        <v>0.04572992637325627</v>
       </c>
       <c r="D76">
-        <v>-0.06381053516952223</v>
+        <v>-0.06398140542538491</v>
       </c>
       <c r="E76">
-        <v>-0.0355604802753586</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.004898378325208013</v>
+      </c>
+      <c r="F76">
+        <v>-0.01633696409346129</v>
+      </c>
+      <c r="G76">
+        <v>-0.01840029138452518</v>
+      </c>
+      <c r="H76">
+        <v>0.2776476950838661</v>
+      </c>
+      <c r="I76">
+        <v>-0.03173236930989491</v>
+      </c>
+      <c r="J76">
+        <v>0.04801312370474832</v>
+      </c>
+      <c r="K76">
+        <v>-0.03852505015022339</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.1428515827041842</v>
+        <v>0.099222714241925</v>
       </c>
       <c r="C77">
-        <v>0.0678953321523174</v>
+        <v>0.04615543230619548</v>
       </c>
       <c r="D77">
-        <v>0.07806457456131762</v>
+        <v>0.1729777913328982</v>
       </c>
       <c r="E77">
-        <v>-0.07779345786772876</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.0007134661369234488</v>
+      </c>
+      <c r="F77">
+        <v>-0.1299795543395892</v>
+      </c>
+      <c r="G77">
+        <v>-0.7316445079067606</v>
+      </c>
+      <c r="H77">
+        <v>-0.1939679273888671</v>
+      </c>
+      <c r="I77">
+        <v>-0.3606297113479264</v>
+      </c>
+      <c r="J77">
+        <v>-0.292233883331704</v>
+      </c>
+      <c r="K77">
+        <v>-0.0139124582699726</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.1205744402647567</v>
+        <v>0.1633888462503278</v>
       </c>
       <c r="C78">
-        <v>0.05527378940539761</v>
+        <v>0.06512645176974054</v>
       </c>
       <c r="D78">
-        <v>-0.05430193865590868</v>
+        <v>-0.04351414645618684</v>
       </c>
       <c r="E78">
-        <v>-0.009921790854194734</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.05576570142357511</v>
+      </c>
+      <c r="F78">
+        <v>-0.1589204328559774</v>
+      </c>
+      <c r="G78">
+        <v>0.01382897289222221</v>
+      </c>
+      <c r="H78">
+        <v>-0.1463705725501317</v>
+      </c>
+      <c r="I78">
+        <v>-0.02320811961456093</v>
+      </c>
+      <c r="J78">
+        <v>0.04767288412888995</v>
+      </c>
+      <c r="K78">
+        <v>0.0138800365129324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1533494252301595</v>
+        <v>0.1468470811612624</v>
       </c>
       <c r="C79">
-        <v>0.01073750368001404</v>
+        <v>0.03896055822042618</v>
       </c>
       <c r="D79">
-        <v>-0.06135212511135234</v>
+        <v>-0.04356943662160054</v>
       </c>
       <c r="E79">
-        <v>-0.007417108593630627</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.002361543220869773</v>
+      </c>
+      <c r="F79">
+        <v>0.004009690159241812</v>
+      </c>
+      <c r="G79">
+        <v>-0.04334536536503517</v>
+      </c>
+      <c r="H79">
+        <v>0.1948336616593879</v>
+      </c>
+      <c r="I79">
+        <v>-0.05874799323088632</v>
+      </c>
+      <c r="J79">
+        <v>0.06306022294963465</v>
+      </c>
+      <c r="K79">
+        <v>-0.01306199527114516</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03832404140100221</v>
+        <v>0.04158021855123303</v>
       </c>
       <c r="C80">
-        <v>0.01396707179442407</v>
+        <v>0.007043288508387933</v>
       </c>
       <c r="D80">
-        <v>-0.01644915609662522</v>
+        <v>-0.03658822682908758</v>
       </c>
       <c r="E80">
-        <v>-0.002397013358805481</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02880780731912601</v>
+      </c>
+      <c r="F80">
+        <v>0.0308516222953026</v>
+      </c>
+      <c r="G80">
+        <v>-0.009224353987230397</v>
+      </c>
+      <c r="H80">
+        <v>-0.03658232166032175</v>
+      </c>
+      <c r="I80">
+        <v>0.07875070668493601</v>
+      </c>
+      <c r="J80">
+        <v>0.02479741965920276</v>
+      </c>
+      <c r="K80">
+        <v>0.004906335673570682</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1345022314031265</v>
+        <v>0.1308244229574054</v>
       </c>
       <c r="C81">
-        <v>-0.01476055799847615</v>
+        <v>0.01472783849571715</v>
       </c>
       <c r="D81">
-        <v>-0.04885095046476698</v>
+        <v>-0.03862558242172695</v>
       </c>
       <c r="E81">
-        <v>-0.0278995600856845</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.008931074070059492</v>
+      </c>
+      <c r="F81">
+        <v>-0.002219798232291675</v>
+      </c>
+      <c r="G81">
+        <v>-0.008298062434910741</v>
+      </c>
+      <c r="H81">
+        <v>0.1549642297910656</v>
+      </c>
+      <c r="I81">
+        <v>-0.00276386042070787</v>
+      </c>
+      <c r="J81">
+        <v>-0.0148069492851945</v>
+      </c>
+      <c r="K81">
+        <v>-0.002893443130463648</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1258915359399096</v>
+        <v>0.1249035752259857</v>
       </c>
       <c r="C82">
-        <v>0.01117600695428323</v>
+        <v>0.02748501412705043</v>
       </c>
       <c r="D82">
-        <v>-0.03245824781801754</v>
+        <v>-0.03451693711405433</v>
       </c>
       <c r="E82">
-        <v>-0.0426408548762634</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.02409360571621207</v>
+      </c>
+      <c r="F82">
+        <v>0.009469268774851955</v>
+      </c>
+      <c r="G82">
+        <v>0.01399568715807812</v>
+      </c>
+      <c r="H82">
+        <v>0.2831526455143117</v>
+      </c>
+      <c r="I82">
+        <v>-0.01449011611692148</v>
+      </c>
+      <c r="J82">
+        <v>7.662931170875405e-05</v>
+      </c>
+      <c r="K82">
+        <v>0.01731319759490458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.05304688631451242</v>
+        <v>0.07747816513543719</v>
       </c>
       <c r="C83">
-        <v>0.0165797565492476</v>
+        <v>0.02811693422359052</v>
       </c>
       <c r="D83">
-        <v>0.05114305609589277</v>
+        <v>0.02693874990360957</v>
       </c>
       <c r="E83">
-        <v>-0.01632813317588135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.05805876797073648</v>
+      </c>
+      <c r="F83">
+        <v>0.02720768955515246</v>
+      </c>
+      <c r="G83">
+        <v>0.04179305836472288</v>
+      </c>
+      <c r="H83">
+        <v>-0.07636176531448925</v>
+      </c>
+      <c r="I83">
+        <v>0.09630277931890495</v>
+      </c>
+      <c r="J83">
+        <v>-0.0225214432228185</v>
+      </c>
+      <c r="K83">
+        <v>0.04987258302458698</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.04986038847398572</v>
+        <v>0.03725415955359438</v>
       </c>
       <c r="C84">
-        <v>0.01160921412509032</v>
+        <v>0.0415329937676293</v>
       </c>
       <c r="D84">
-        <v>-0.0402446470549752</v>
+        <v>-0.01140955549933041</v>
       </c>
       <c r="E84">
-        <v>0.0432693962263223</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.05724808705444117</v>
+      </c>
+      <c r="F84">
+        <v>0.0007792709335728628</v>
+      </c>
+      <c r="G84">
+        <v>0.03252979035077678</v>
+      </c>
+      <c r="H84">
+        <v>-0.001772983765191004</v>
+      </c>
+      <c r="I84">
+        <v>0.1267109977244317</v>
+      </c>
+      <c r="J84">
+        <v>0.01936423153451295</v>
+      </c>
+      <c r="K84">
+        <v>0.08481431509396779</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1164818300098046</v>
+        <v>0.1223337329101737</v>
       </c>
       <c r="C85">
-        <v>0.02948830182553762</v>
+        <v>0.03659071061759148</v>
       </c>
       <c r="D85">
-        <v>-0.02593696096804867</v>
+        <v>-0.02175405849108844</v>
       </c>
       <c r="E85">
-        <v>-0.0660662796257791</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.02317192195603853</v>
+      </c>
+      <c r="F85">
+        <v>-0.03061924405402337</v>
+      </c>
+      <c r="G85">
+        <v>-0.01342770762602359</v>
+      </c>
+      <c r="H85">
+        <v>0.196514774815775</v>
+      </c>
+      <c r="I85">
+        <v>-0.03048200052371377</v>
+      </c>
+      <c r="J85">
+        <v>0.07225773465684837</v>
+      </c>
+      <c r="K85">
+        <v>-0.02245279875012762</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.0756059317996888</v>
+        <v>0.06653482495128749</v>
       </c>
       <c r="C86">
-        <v>0.05798437549942524</v>
+        <v>0.03116862897018392</v>
       </c>
       <c r="D86">
-        <v>-0.02487231423697629</v>
+        <v>0.009083761452820506</v>
       </c>
       <c r="E86">
-        <v>-0.02350143447084203</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.002249081490773534</v>
+      </c>
+      <c r="F86">
+        <v>-0.04211385214668675</v>
+      </c>
+      <c r="G86">
+        <v>0.006368757480238347</v>
+      </c>
+      <c r="H86">
+        <v>-0.04133935705608769</v>
+      </c>
+      <c r="I86">
+        <v>-0.0655166941081322</v>
+      </c>
+      <c r="J86">
+        <v>0.001775115453286577</v>
+      </c>
+      <c r="K86">
+        <v>0.04262255866908807</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1329985182810131</v>
+        <v>0.1300141806833219</v>
       </c>
       <c r="C87">
-        <v>0.06009065150949913</v>
+        <v>0.07084315837058319</v>
       </c>
       <c r="D87">
-        <v>-0.0727458918460986</v>
+        <v>-0.01891437090701154</v>
       </c>
       <c r="E87">
-        <v>-0.04886986042521987</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.04031804819063397</v>
+      </c>
+      <c r="F87">
+        <v>-0.08871672216410162</v>
+      </c>
+      <c r="G87">
+        <v>-0.1715455854590129</v>
+      </c>
+      <c r="H87">
+        <v>-0.06573706217512493</v>
+      </c>
+      <c r="I87">
+        <v>-0.003015608274311383</v>
+      </c>
+      <c r="J87">
+        <v>-0.0296622115692625</v>
+      </c>
+      <c r="K87">
+        <v>-0.003454598807352408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.06059289357833134</v>
+        <v>0.06534334168831341</v>
       </c>
       <c r="C88">
-        <v>0.01966182278137164</v>
+        <v>0.03689605948971642</v>
       </c>
       <c r="D88">
-        <v>-0.01860412881904213</v>
+        <v>-0.02711516539668484</v>
       </c>
       <c r="E88">
-        <v>-0.01125519333646391</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01269019406292211</v>
+      </c>
+      <c r="F88">
+        <v>-0.005835499646284863</v>
+      </c>
+      <c r="G88">
+        <v>-0.0222402093005089</v>
+      </c>
+      <c r="H88">
+        <v>0.01850408556347482</v>
+      </c>
+      <c r="I88">
+        <v>0.04556778264656768</v>
+      </c>
+      <c r="J88">
+        <v>-0.01232554607170539</v>
+      </c>
+      <c r="K88">
+        <v>0.02088973664411204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.06686618311474883</v>
+        <v>0.1300427563433282</v>
       </c>
       <c r="C89">
-        <v>-0.3312592375001633</v>
+        <v>-0.3810878046175735</v>
       </c>
       <c r="D89">
-        <v>0.05046103140286156</v>
+        <v>0.003581121740802747</v>
       </c>
       <c r="E89">
-        <v>-0.1077295959669747</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.04324946509131547</v>
+      </c>
+      <c r="F89">
+        <v>-0.07887108698967073</v>
+      </c>
+      <c r="G89">
+        <v>0.02186753485742333</v>
+      </c>
+      <c r="H89">
+        <v>-0.008189610525001167</v>
+      </c>
+      <c r="I89">
+        <v>0.08122548579071932</v>
+      </c>
+      <c r="J89">
+        <v>-0.05478242742826166</v>
+      </c>
+      <c r="K89">
+        <v>-0.02484364996339958</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.05865495577720107</v>
+        <v>0.0939187882252723</v>
       </c>
       <c r="C90">
-        <v>-0.2859414319252866</v>
+        <v>-0.2841697261119362</v>
       </c>
       <c r="D90">
-        <v>0.06987573423512934</v>
+        <v>0.03282602509190696</v>
       </c>
       <c r="E90">
-        <v>-0.05411930604393499</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01086815977038648</v>
+      </c>
+      <c r="F90">
+        <v>-0.02625312384837327</v>
+      </c>
+      <c r="G90">
+        <v>-0.01814774515135557</v>
+      </c>
+      <c r="H90">
+        <v>-0.04307767076473813</v>
+      </c>
+      <c r="I90">
+        <v>0.07955971917554688</v>
+      </c>
+      <c r="J90">
+        <v>-0.03106341699710042</v>
+      </c>
+      <c r="K90">
+        <v>-0.0324680087674938</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.1033931593553255</v>
+        <v>0.09125778777136298</v>
       </c>
       <c r="C91">
-        <v>0.002446225848625607</v>
+        <v>0.03194287440731738</v>
       </c>
       <c r="D91">
-        <v>-0.03152802228887745</v>
+        <v>-0.0113983020433257</v>
       </c>
       <c r="E91">
-        <v>-0.01493681145313815</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.004006616406254749</v>
+      </c>
+      <c r="F91">
+        <v>0.003211861862643224</v>
+      </c>
+      <c r="G91">
+        <v>0.01574329992358786</v>
+      </c>
+      <c r="H91">
+        <v>0.09004864294827677</v>
+      </c>
+      <c r="I91">
+        <v>-0.02099691901543983</v>
+      </c>
+      <c r="J91">
+        <v>0.00914264430612244</v>
+      </c>
+      <c r="K91">
+        <v>-0.01647969018935645</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.04236363927922954</v>
+        <v>0.09221649208426438</v>
       </c>
       <c r="C92">
-        <v>-0.3331373305006892</v>
+        <v>-0.3406953586532464</v>
       </c>
       <c r="D92">
-        <v>0.043793043191351</v>
+        <v>0.005479282060809202</v>
       </c>
       <c r="E92">
-        <v>-0.08969360905234711</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.009747675609768068</v>
+      </c>
+      <c r="F92">
+        <v>-0.05965168086601377</v>
+      </c>
+      <c r="G92">
+        <v>-0.0006235032628832163</v>
+      </c>
+      <c r="H92">
+        <v>0.01129158552145497</v>
+      </c>
+      <c r="I92">
+        <v>0.02498980500252128</v>
+      </c>
+      <c r="J92">
+        <v>-0.01571714212391886</v>
+      </c>
+      <c r="K92">
+        <v>-0.002185153290265833</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.03650498007251395</v>
+        <v>0.09269299431288396</v>
       </c>
       <c r="C93">
-        <v>-0.2995036731060785</v>
+        <v>-0.3212373712975232</v>
       </c>
       <c r="D93">
-        <v>0.05080865549696899</v>
+        <v>0.004002883687104884</v>
       </c>
       <c r="E93">
-        <v>-0.05502446822635309</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01507050861042524</v>
+      </c>
+      <c r="F93">
+        <v>-0.01708569577686808</v>
+      </c>
+      <c r="G93">
+        <v>-0.0001580207724072579</v>
+      </c>
+      <c r="H93">
+        <v>-0.009892710515198166</v>
+      </c>
+      <c r="I93">
+        <v>0.0007351290049645993</v>
+      </c>
+      <c r="J93">
+        <v>0.002782187418462278</v>
+      </c>
+      <c r="K93">
+        <v>0.03602759030672504</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.1272776857593035</v>
+        <v>0.1222023837595149</v>
       </c>
       <c r="C94">
-        <v>0.04575162988608791</v>
+        <v>0.05142591762280142</v>
       </c>
       <c r="D94">
-        <v>-0.03790547388752409</v>
+        <v>-0.01435020760194499</v>
       </c>
       <c r="E94">
-        <v>-0.03599029054293743</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.01303740042961789</v>
+      </c>
+      <c r="F94">
+        <v>-0.02663555244291107</v>
+      </c>
+      <c r="G94">
+        <v>0.0535479892246656</v>
+      </c>
+      <c r="H94">
+        <v>0.1188811051475875</v>
+      </c>
+      <c r="I94">
+        <v>-0.02179847569904185</v>
+      </c>
+      <c r="J94">
+        <v>0.02442010497310468</v>
+      </c>
+      <c r="K94">
+        <v>-0.01996964094792938</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.133043293163067</v>
+        <v>0.1423603420345727</v>
       </c>
       <c r="C95">
-        <v>0.06064653093089058</v>
+        <v>0.06037645733927541</v>
       </c>
       <c r="D95">
-        <v>-0.08211246993676583</v>
+        <v>-0.04221578195841538</v>
       </c>
       <c r="E95">
-        <v>-0.06157918813368619</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.0006108976660476096</v>
+      </c>
+      <c r="F95">
+        <v>-0.05743038851132918</v>
+      </c>
+      <c r="G95">
+        <v>-0.02666371379657501</v>
+      </c>
+      <c r="H95">
+        <v>-0.1514608975343708</v>
+      </c>
+      <c r="I95">
+        <v>0.02304329453104247</v>
+      </c>
+      <c r="J95">
+        <v>0.002972098158190445</v>
+      </c>
+      <c r="K95">
+        <v>0.03760105937855058</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +4054,133 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.2449368813006664</v>
+        <v>0.1862438526752405</v>
       </c>
       <c r="C97">
-        <v>-0.1560266415531388</v>
+        <v>-0.04195531778398184</v>
       </c>
       <c r="D97">
-        <v>-0.03487113372378804</v>
+        <v>0.1850012004320298</v>
       </c>
       <c r="E97">
-        <v>0.8879287087184958</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.694620906451798</v>
+      </c>
+      <c r="F97">
+        <v>0.6071587663342038</v>
+      </c>
+      <c r="G97">
+        <v>-0.03014197196759591</v>
+      </c>
+      <c r="H97">
+        <v>-0.05867323018638942</v>
+      </c>
+      <c r="I97">
+        <v>0.04434191126551498</v>
+      </c>
+      <c r="J97">
+        <v>-0.02235451960555959</v>
+      </c>
+      <c r="K97">
+        <v>-0.05079548292471303</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.2791947219418273</v>
+        <v>0.2863308675994203</v>
       </c>
       <c r="C98">
-        <v>0.02015367308864581</v>
+        <v>0.07899445015019481</v>
       </c>
       <c r="D98">
-        <v>-0.01115863677092332</v>
+        <v>-0.06723608480209649</v>
       </c>
       <c r="E98">
-        <v>-0.03559115971903738</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1899064765828033</v>
+      </c>
+      <c r="F98">
+        <v>0.239786276653969</v>
+      </c>
+      <c r="G98">
+        <v>0.2865956457263537</v>
+      </c>
+      <c r="H98">
+        <v>-0.2095787727864874</v>
+      </c>
+      <c r="I98">
+        <v>-0.1613870487514703</v>
+      </c>
+      <c r="J98">
+        <v>-0.2346246385418463</v>
+      </c>
+      <c r="K98">
+        <v>0.6407929435859189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.2508097010796979</v>
+        <v>0.1655363576403169</v>
       </c>
       <c r="C99">
-        <v>0.1934039712314812</v>
+        <v>0.09351018922838795</v>
       </c>
       <c r="D99">
-        <v>0.910842626797846</v>
+        <v>0.8396891395745454</v>
       </c>
       <c r="E99">
-        <v>0.01578240774744109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.3777227498007745</v>
+      </c>
+      <c r="F99">
+        <v>0.1206695737519429</v>
+      </c>
+      <c r="G99">
+        <v>0.02619711193216514</v>
+      </c>
+      <c r="H99">
+        <v>0.1155517887780261</v>
+      </c>
+      <c r="I99">
+        <v>0.05003339668711326</v>
+      </c>
+      <c r="J99">
+        <v>0.1053859709402445</v>
+      </c>
+      <c r="K99">
+        <v>-0.004320534292479476</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +4194,63 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.0572510285091672</v>
+        <v>0.0551232454567668</v>
       </c>
       <c r="C101">
-        <v>-0.01466345387453433</v>
+        <v>0.005332888289808217</v>
       </c>
       <c r="D101">
-        <v>-0.04032034865966072</v>
+        <v>-0.03440243629831607</v>
       </c>
       <c r="E101">
-        <v>-0.02669864646098461</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01570120387075697</v>
+      </c>
+      <c r="F101">
+        <v>-0.04174253071566275</v>
+      </c>
+      <c r="G101">
+        <v>-0.02817419412254593</v>
+      </c>
+      <c r="H101">
+        <v>0.05775970026582296</v>
+      </c>
+      <c r="I101">
+        <v>0.05349412310510667</v>
+      </c>
+      <c r="J101">
+        <v>0.02352053670107855</v>
+      </c>
+      <c r="K101">
+        <v>0.04312010301838932</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +4264,28 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +4299,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4332,24 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
